--- a/Code/Results/Cases/Case_2_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00347279806769</v>
+        <v>1.024194244416059</v>
       </c>
       <c r="D2">
-        <v>1.020335267163372</v>
+        <v>1.029408791303877</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.009975783121743</v>
+        <v>1.035628406177603</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045326759347431</v>
+        <v>1.034190942919602</v>
       </c>
       <c r="J2">
-        <v>1.02555013217833</v>
+        <v>1.029370224458952</v>
       </c>
       <c r="K2">
-        <v>1.031518386342185</v>
+        <v>1.032222787573555</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.021297867124569</v>
+        <v>1.038424465723949</v>
       </c>
       <c r="N2">
-        <v>1.012546169068613</v>
+        <v>1.013858947106946</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007028925438438</v>
+        <v>1.02493184508438</v>
       </c>
       <c r="D3">
-        <v>1.022858949213612</v>
+        <v>1.029947926262335</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.014507434227906</v>
+        <v>1.036649747987729</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04643923759945</v>
+        <v>1.03436346511185</v>
       </c>
       <c r="J3">
-        <v>1.027329791788993</v>
+        <v>1.029747723985935</v>
       </c>
       <c r="K3">
-        <v>1.033207467038374</v>
+        <v>1.032570786295728</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.024957994765333</v>
+        <v>1.039254678676631</v>
       </c>
       <c r="N3">
-        <v>1.013133224926758</v>
+        <v>1.013983417266436</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009286287395022</v>
+        <v>1.025409447797493</v>
       </c>
       <c r="D4">
-        <v>1.024462783856506</v>
+        <v>1.030296983803465</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.01738517763887</v>
+        <v>1.03731131940605</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047134747968873</v>
+        <v>1.034473883859476</v>
       </c>
       <c r="J4">
-        <v>1.028455395419521</v>
+        <v>1.029991630085582</v>
       </c>
       <c r="K4">
-        <v>1.034274664337995</v>
+        <v>1.032795456917344</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.027278210987234</v>
+        <v>1.039791972428522</v>
       </c>
       <c r="N4">
-        <v>1.013504548326328</v>
+        <v>1.014063833146252</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010225126531897</v>
+        <v>1.025610308282833</v>
       </c>
       <c r="D5">
-        <v>1.025130229120146</v>
+        <v>1.030443774057773</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.018582362691262</v>
+        <v>1.037589609196631</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047421420469532</v>
+        <v>1.034520012365098</v>
       </c>
       <c r="J5">
-        <v>1.028922534250605</v>
+        <v>1.030094080613452</v>
       </c>
       <c r="K5">
-        <v>1.034717286701756</v>
+        <v>1.032889785739416</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.02824246041862</v>
+        <v>1.040017871217815</v>
       </c>
       <c r="N5">
-        <v>1.013658656198919</v>
+        <v>1.014097609768685</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01038217479627</v>
+        <v>1.025644038067763</v>
       </c>
       <c r="D6">
-        <v>1.025241901862148</v>
+        <v>1.03046842346261</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.018782647752507</v>
+        <v>1.037636344927298</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047469221616395</v>
+        <v>1.034527740426648</v>
       </c>
       <c r="J6">
-        <v>1.02900061746667</v>
+        <v>1.030111277339418</v>
       </c>
       <c r="K6">
-        <v>1.034791255376351</v>
+        <v>1.032905616735091</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.028403717124969</v>
+        <v>1.040055801786781</v>
       </c>
       <c r="N6">
-        <v>1.013684415876255</v>
+        <v>1.014103279229561</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00929887172157</v>
+        <v>1.025412131407414</v>
       </c>
       <c r="D7">
-        <v>1.024471728813973</v>
+        <v>1.030298945041597</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.017401223499188</v>
+        <v>1.037315037280373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047138600838885</v>
+        <v>1.034474501377297</v>
       </c>
       <c r="J7">
-        <v>1.02846166098969</v>
+        <v>1.029992999380114</v>
       </c>
       <c r="K7">
-        <v>1.034280602184986</v>
+        <v>1.032796717827262</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.027291138767151</v>
+        <v>1.039794990820115</v>
       </c>
       <c r="N7">
-        <v>1.013506615305559</v>
+        <v>1.014064284590324</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004683841451454</v>
+        <v>1.024443451553522</v>
       </c>
       <c r="D8">
-        <v>1.021194301086284</v>
+        <v>1.029590951814497</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.011518838651349</v>
+        <v>1.035973428796413</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04570783148439</v>
+        <v>1.034249498653834</v>
       </c>
       <c r="J8">
-        <v>1.026157042402776</v>
+        <v>1.029497876352954</v>
       </c>
       <c r="K8">
-        <v>1.032094635706213</v>
+        <v>1.032340499837887</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.022545008212494</v>
+        <v>1.038705020650847</v>
       </c>
       <c r="N8">
-        <v>1.012746365570322</v>
+        <v>1.013901037961541</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9962026211334031</v>
+        <v>1.022739083122468</v>
       </c>
       <c r="D9">
-        <v>1.015187581742426</v>
+        <v>1.028344992864498</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.00071487515706</v>
+        <v>1.033614719364497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042995194341196</v>
+        <v>1.033843745342608</v>
       </c>
       <c r="J9">
-        <v>1.021890190972557</v>
+        <v>1.028622687069982</v>
       </c>
       <c r="K9">
-        <v>1.028038964746427</v>
+        <v>1.031532746153553</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.013796364648523</v>
+        <v>1.036785097918241</v>
       </c>
       <c r="N9">
-        <v>1.011339012761356</v>
+        <v>1.013612438527129</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9902927279235895</v>
+        <v>1.021604664830613</v>
       </c>
       <c r="D10">
-        <v>1.011015439905046</v>
+        <v>1.027515540668235</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.993186702841333</v>
+        <v>1.032045931871096</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041050586612861</v>
+        <v>1.033567054967109</v>
       </c>
       <c r="J10">
-        <v>1.018896851757875</v>
+        <v>1.028037464023716</v>
       </c>
       <c r="K10">
-        <v>1.025188615222994</v>
+        <v>1.030991729650614</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.007680072857011</v>
+        <v>1.035505717607282</v>
       </c>
       <c r="N10">
-        <v>1.010351890660535</v>
+        <v>1.013419430487111</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9876679674991194</v>
+        <v>1.021113903593817</v>
       </c>
       <c r="D11">
-        <v>1.009166218117484</v>
+        <v>1.027156681560487</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9898423139366962</v>
+        <v>1.031367518247311</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04017445416781</v>
+        <v>1.0334457865026</v>
       </c>
       <c r="J11">
-        <v>1.017562927295288</v>
+        <v>1.027783651292872</v>
       </c>
       <c r="K11">
-        <v>1.02391731878152</v>
+        <v>1.030756881375027</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.004958365784257</v>
+        <v>1.034951880569993</v>
       </c>
       <c r="N11">
-        <v>1.009912052433112</v>
+        <v>1.013335716240362</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9866826783083296</v>
+        <v>1.020931682214228</v>
       </c>
       <c r="D12">
-        <v>1.008472665060825</v>
+        <v>1.027023431976821</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9885866656310429</v>
+        <v>1.03111565881194</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039843731617436</v>
+        <v>1.033400523415708</v>
       </c>
       <c r="J12">
-        <v>1.017061544012992</v>
+        <v>1.027689313836806</v>
       </c>
       <c r="K12">
-        <v>1.023439322667534</v>
+        <v>1.030669561573957</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.003935843163972</v>
+        <v>1.034746183413685</v>
       </c>
       <c r="N12">
-        <v>1.009746739059941</v>
+        <v>1.013304600307503</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9868945016174946</v>
+        <v>1.020970766160503</v>
       </c>
       <c r="D13">
-        <v>1.00862174072727</v>
+        <v>1.027052012325489</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9888566238946038</v>
+        <v>1.031169677452439</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039914914766956</v>
+        <v>1.033410242381052</v>
       </c>
       <c r="J13">
-        <v>1.017169363411877</v>
+        <v>1.027709552243946</v>
       </c>
       <c r="K13">
-        <v>1.023542119523251</v>
+        <v>1.030688295872732</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.004155709968925</v>
+        <v>1.034790305112809</v>
       </c>
       <c r="N13">
-        <v>1.009782288266543</v>
+        <v>1.013311275713014</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9875867368025975</v>
+        <v>1.021098839696456</v>
       </c>
       <c r="D14">
-        <v>1.009109026429773</v>
+        <v>1.027145666146408</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9897387989484719</v>
+        <v>1.031346696736091</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040147225396471</v>
+        <v>1.033442049496486</v>
       </c>
       <c r="J14">
-        <v>1.017521604605276</v>
+        <v>1.027775854549225</v>
       </c>
       <c r="K14">
-        <v>1.023877926641891</v>
+        <v>1.030749665255062</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.00487408283128</v>
+        <v>1.034934877112009</v>
       </c>
       <c r="N14">
-        <v>1.009898427552468</v>
+        <v>1.013333144608463</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9880118618587974</v>
+        <v>1.021177759248215</v>
       </c>
       <c r="D15">
-        <v>1.009408367360746</v>
+        <v>1.027203375591662</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9902805403633471</v>
+        <v>1.031455781894882</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040289653855365</v>
+        <v>1.03346161796782</v>
       </c>
       <c r="J15">
-        <v>1.017737842622589</v>
+        <v>1.027816697655412</v>
       </c>
       <c r="K15">
-        <v>1.024084056094493</v>
+        <v>1.030787465502762</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.005315147423024</v>
+        <v>1.035023955716563</v>
       </c>
       <c r="N15">
-        <v>1.009969725730842</v>
+        <v>1.013346616020371</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.990465500979094</v>
+        <v>1.02163724464893</v>
       </c>
       <c r="D16">
-        <v>1.011137245998773</v>
+        <v>1.027539363415455</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.993406818846842</v>
+        <v>1.032090974621496</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041108000316675</v>
+        <v>1.033575072463234</v>
       </c>
       <c r="J16">
-        <v>1.018984564702142</v>
+        <v>1.028054300250181</v>
       </c>
       <c r="K16">
-        <v>1.025272188214033</v>
+        <v>1.031007303537601</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.007859113256598</v>
+        <v>1.035542477054318</v>
       </c>
       <c r="N16">
-        <v>1.010380813664824</v>
+        <v>1.013424983397823</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9919866880255049</v>
+        <v>1.021925589198184</v>
       </c>
       <c r="D17">
-        <v>1.012210125900642</v>
+        <v>1.027750201012609</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9953447257604623</v>
+        <v>1.032489651088956</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041612083988627</v>
+        <v>1.033645849177535</v>
       </c>
       <c r="J17">
-        <v>1.019756327429274</v>
+        <v>1.028203233803158</v>
       </c>
       <c r="K17">
-        <v>1.026007401629405</v>
+        <v>1.031145046423057</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.009434874130072</v>
+        <v>1.035867770860453</v>
       </c>
       <c r="N17">
-        <v>1.010635305681761</v>
+        <v>1.013474103833236</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9928676604567828</v>
+        <v>1.022093818940265</v>
       </c>
       <c r="D18">
-        <v>1.012831821248137</v>
+        <v>1.027873207766119</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9964669554886423</v>
+        <v>1.03272227732436</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041902828495372</v>
+        <v>1.033686991148477</v>
       </c>
       <c r="J18">
-        <v>1.020202853544562</v>
+        <v>1.028290064854703</v>
       </c>
       <c r="K18">
-        <v>1.026432676675227</v>
+        <v>1.03122533304064</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.010346953838061</v>
+        <v>1.03605752296641</v>
       </c>
       <c r="N18">
-        <v>1.010782554606162</v>
+        <v>1.013502741371771</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9931669924796047</v>
+        <v>1.022151188218758</v>
       </c>
       <c r="D19">
-        <v>1.013043115991934</v>
+        <v>1.02791515471438</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9968482496139784</v>
+        <v>1.032801611241876</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042001413506163</v>
+        <v>1.03370099557809</v>
       </c>
       <c r="J19">
-        <v>1.020354498362454</v>
+        <v>1.028319665288499</v>
       </c>
       <c r="K19">
-        <v>1.026577086374404</v>
+        <v>1.03125269908858</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.010656772178119</v>
+        <v>1.036122225827258</v>
       </c>
       <c r="N19">
-        <v>1.010832562671834</v>
+        <v>1.013512503717519</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9918241349854218</v>
+        <v>1.021894648071743</v>
       </c>
       <c r="D20">
-        <v>1.012095441687066</v>
+        <v>1.027727577147589</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9951376511851711</v>
+        <v>1.032446868077242</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041558340894621</v>
+        <v>1.033638270073497</v>
       </c>
       <c r="J20">
-        <v>1.019673901659917</v>
+        <v>1.028187258706826</v>
       </c>
       <c r="K20">
-        <v>1.025928890149482</v>
+        <v>1.031130273748569</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.009266541386473</v>
+        <v>1.035832868485347</v>
       </c>
       <c r="N20">
-        <v>1.010608124905799</v>
+        <v>1.013468835077375</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.987383179961085</v>
+        <v>1.021061123308644</v>
       </c>
       <c r="D21">
-        <v>1.008965719227167</v>
+        <v>1.027118086128375</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9894793957663568</v>
+        <v>1.031294565272342</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040078963049482</v>
+        <v>1.033432689121812</v>
       </c>
       <c r="J21">
-        <v>1.017418043235234</v>
+        <v>1.027756331823409</v>
       </c>
       <c r="K21">
-        <v>1.023779201120626</v>
+        <v>1.03073159588571</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.004662863581155</v>
+        <v>1.034892303629608</v>
       </c>
       <c r="N21">
-        <v>1.009864281537243</v>
+        <v>1.013326705333196</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9845309241650921</v>
+        <v>1.020537454380015</v>
       </c>
       <c r="D22">
-        <v>1.006959208752647</v>
+        <v>1.026735145783327</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9858439678101344</v>
+        <v>1.030570840238699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039118136147754</v>
+        <v>1.033302167942113</v>
       </c>
       <c r="J22">
-        <v>1.015965412055146</v>
+        <v>1.027485043764079</v>
       </c>
       <c r="K22">
-        <v>1.022394051598447</v>
+        <v>1.03048043025685</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.001701173050842</v>
+        <v>1.034301064346837</v>
       </c>
       <c r="N22">
-        <v>1.00938534588001</v>
+        <v>1.013237222944088</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9860488120632216</v>
+        <v>1.020815022599233</v>
       </c>
       <c r="D23">
-        <v>1.008026660283864</v>
+        <v>1.026938123459251</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9877787949110879</v>
+        <v>1.030954426879778</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039630454620309</v>
+        <v>1.033371479285755</v>
       </c>
       <c r="J23">
-        <v>1.016738808495742</v>
+        <v>1.027628891248667</v>
       </c>
       <c r="K23">
-        <v>1.023131599589592</v>
+        <v>1.030613625024833</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.003277780133167</v>
+        <v>1.034614478681251</v>
       </c>
       <c r="N23">
-        <v>1.009640331099794</v>
+        <v>1.01328467048081</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9918976051746353</v>
+        <v>1.021908628901521</v>
       </c>
       <c r="D24">
-        <v>1.012147275190187</v>
+        <v>1.027737799809746</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9952312443120976</v>
+        <v>1.032466199616112</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04158263520657</v>
+        <v>1.033641695179779</v>
       </c>
       <c r="J24">
-        <v>1.019711157518665</v>
+        <v>1.028194477286996</v>
       </c>
       <c r="K24">
-        <v>1.025964377101918</v>
+        <v>1.031136949058929</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.009342625408091</v>
+        <v>1.03584863932395</v>
       </c>
       <c r="N24">
-        <v>1.010620410406703</v>
+        <v>1.013471215843364</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9984386743378588</v>
+        <v>1.023179388447946</v>
       </c>
       <c r="D25">
-        <v>1.016769091406739</v>
+        <v>1.028666901249198</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.003562967785777</v>
+        <v>1.034223857902699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0437199042352</v>
+        <v>1.03394973624973</v>
       </c>
       <c r="J25">
-        <v>1.02301869780971</v>
+        <v>1.028849260044448</v>
       </c>
       <c r="K25">
-        <v>1.029112548917574</v>
+        <v>1.03174201787773</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.016106223920163</v>
+        <v>1.037281348805436</v>
       </c>
       <c r="N25">
-        <v>1.01171120462223</v>
+        <v>1.013687157262542</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024194244416059</v>
+        <v>1.003472798067689</v>
       </c>
       <c r="D2">
-        <v>1.029408791303877</v>
+        <v>1.020335267163372</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.035628406177603</v>
+        <v>1.009975783121742</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034190942919602</v>
+        <v>1.04532675934743</v>
       </c>
       <c r="J2">
-        <v>1.029370224458952</v>
+        <v>1.025550132178329</v>
       </c>
       <c r="K2">
-        <v>1.032222787573555</v>
+        <v>1.031518386342185</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.038424465723949</v>
+        <v>1.021297867124568</v>
       </c>
       <c r="N2">
-        <v>1.013858947106946</v>
+        <v>1.012546169068613</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02493184508438</v>
+        <v>1.007028925438438</v>
       </c>
       <c r="D3">
-        <v>1.029947926262335</v>
+        <v>1.022858949213611</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.036649747987729</v>
+        <v>1.014507434227905</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03436346511185</v>
+        <v>1.04643923759945</v>
       </c>
       <c r="J3">
-        <v>1.029747723985935</v>
+        <v>1.027329791788993</v>
       </c>
       <c r="K3">
-        <v>1.032570786295728</v>
+        <v>1.033207467038373</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.039254678676631</v>
+        <v>1.024957994765332</v>
       </c>
       <c r="N3">
-        <v>1.013983417266436</v>
+        <v>1.013133224926758</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025409447797493</v>
+        <v>1.009286287395022</v>
       </c>
       <c r="D4">
-        <v>1.030296983803465</v>
+        <v>1.024462783856506</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.03731131940605</v>
+        <v>1.017385177638869</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034473883859476</v>
+        <v>1.047134747968873</v>
       </c>
       <c r="J4">
-        <v>1.029991630085582</v>
+        <v>1.028455395419521</v>
       </c>
       <c r="K4">
-        <v>1.032795456917344</v>
+        <v>1.034274664337995</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.039791972428522</v>
+        <v>1.027278210987235</v>
       </c>
       <c r="N4">
-        <v>1.014063833146252</v>
+        <v>1.013504548326328</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025610308282833</v>
+        <v>1.010225126531898</v>
       </c>
       <c r="D5">
-        <v>1.030443774057773</v>
+        <v>1.025130229120147</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.037589609196631</v>
+        <v>1.018582362691262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034520012365098</v>
+        <v>1.047421420469533</v>
       </c>
       <c r="J5">
-        <v>1.030094080613452</v>
+        <v>1.028922534250606</v>
       </c>
       <c r="K5">
-        <v>1.032889785739416</v>
+        <v>1.034717286701756</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.040017871217815</v>
+        <v>1.028242460418621</v>
       </c>
       <c r="N5">
-        <v>1.014097609768685</v>
+        <v>1.01365865619892</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025644038067763</v>
+        <v>1.01038217479627</v>
       </c>
       <c r="D6">
-        <v>1.03046842346261</v>
+        <v>1.025241901862148</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.037636344927298</v>
+        <v>1.018782647752507</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034527740426648</v>
+        <v>1.047469221616395</v>
       </c>
       <c r="J6">
-        <v>1.030111277339418</v>
+        <v>1.02900061746667</v>
       </c>
       <c r="K6">
-        <v>1.032905616735091</v>
+        <v>1.034791255376351</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.040055801786781</v>
+        <v>1.028403717124969</v>
       </c>
       <c r="N6">
-        <v>1.014103279229561</v>
+        <v>1.013684415876255</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025412131407414</v>
+        <v>1.009298871721569</v>
       </c>
       <c r="D7">
-        <v>1.030298945041597</v>
+        <v>1.024471728813973</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.037315037280373</v>
+        <v>1.017401223499188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034474501377297</v>
+        <v>1.047138600838885</v>
       </c>
       <c r="J7">
-        <v>1.029992999380114</v>
+        <v>1.028461660989689</v>
       </c>
       <c r="K7">
-        <v>1.032796717827262</v>
+        <v>1.034280602184986</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.039794990820115</v>
+        <v>1.02729113876715</v>
       </c>
       <c r="N7">
-        <v>1.014064284590324</v>
+        <v>1.013506615305559</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024443451553522</v>
+        <v>1.004683841451454</v>
       </c>
       <c r="D8">
-        <v>1.029590951814497</v>
+        <v>1.021194301086284</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.035973428796413</v>
+        <v>1.011518838651349</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034249498653834</v>
+        <v>1.04570783148439</v>
       </c>
       <c r="J8">
-        <v>1.029497876352954</v>
+        <v>1.026157042402776</v>
       </c>
       <c r="K8">
-        <v>1.032340499837887</v>
+        <v>1.032094635706213</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.038705020650847</v>
+        <v>1.022545008212494</v>
       </c>
       <c r="N8">
-        <v>1.013901037961541</v>
+        <v>1.012746365570323</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022739083122468</v>
+        <v>0.9962026211334033</v>
       </c>
       <c r="D9">
-        <v>1.028344992864498</v>
+        <v>1.015187581742426</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.033614719364497</v>
+        <v>1.000714875157061</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033843745342608</v>
+        <v>1.042995194341196</v>
       </c>
       <c r="J9">
-        <v>1.028622687069982</v>
+        <v>1.021890190972557</v>
       </c>
       <c r="K9">
-        <v>1.031532746153553</v>
+        <v>1.028038964746427</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.036785097918241</v>
+        <v>1.013796364648524</v>
       </c>
       <c r="N9">
-        <v>1.013612438527129</v>
+        <v>1.011339012761356</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021604664830613</v>
+        <v>0.9902927279235896</v>
       </c>
       <c r="D10">
-        <v>1.027515540668235</v>
+        <v>1.011015439905046</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.032045931871096</v>
+        <v>0.9931867028413334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033567054967109</v>
+        <v>1.041050586612861</v>
       </c>
       <c r="J10">
-        <v>1.028037464023716</v>
+        <v>1.018896851757875</v>
       </c>
       <c r="K10">
-        <v>1.030991729650614</v>
+        <v>1.025188615222994</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.035505717607282</v>
+        <v>1.007680072857012</v>
       </c>
       <c r="N10">
-        <v>1.013419430487111</v>
+        <v>1.010351890660535</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021113903593817</v>
+        <v>0.9876679674991192</v>
       </c>
       <c r="D11">
-        <v>1.027156681560487</v>
+        <v>1.009166218117484</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.031367518247311</v>
+        <v>0.9898423139366963</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0334457865026</v>
+        <v>1.04017445416781</v>
       </c>
       <c r="J11">
-        <v>1.027783651292872</v>
+        <v>1.017562927295288</v>
       </c>
       <c r="K11">
-        <v>1.030756881375027</v>
+        <v>1.02391731878152</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.034951880569993</v>
+        <v>1.004958365784258</v>
       </c>
       <c r="N11">
-        <v>1.013335716240362</v>
+        <v>1.009912052433112</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020931682214228</v>
+        <v>0.9866826783083298</v>
       </c>
       <c r="D12">
-        <v>1.027023431976821</v>
+        <v>1.008472665060825</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.03111565881194</v>
+        <v>0.988586665631043</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033400523415708</v>
+        <v>1.039843731617437</v>
       </c>
       <c r="J12">
-        <v>1.027689313836806</v>
+        <v>1.017061544012992</v>
       </c>
       <c r="K12">
-        <v>1.030669561573957</v>
+        <v>1.023439322667534</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.034746183413685</v>
+        <v>1.003935843163973</v>
       </c>
       <c r="N12">
-        <v>1.013304600307503</v>
+        <v>1.009746739059941</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020970766160503</v>
+        <v>0.9868945016174938</v>
       </c>
       <c r="D13">
-        <v>1.027052012325489</v>
+        <v>1.00862174072727</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.031169677452439</v>
+        <v>0.9888566238946033</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033410242381052</v>
+        <v>1.039914914766955</v>
       </c>
       <c r="J13">
-        <v>1.027709552243946</v>
+        <v>1.017169363411877</v>
       </c>
       <c r="K13">
-        <v>1.030688295872732</v>
+        <v>1.02354211952325</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.034790305112809</v>
+        <v>1.004155709968925</v>
       </c>
       <c r="N13">
-        <v>1.013311275713014</v>
+        <v>1.009782288266542</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021098839696456</v>
+        <v>0.9875867368025976</v>
       </c>
       <c r="D14">
-        <v>1.027145666146408</v>
+        <v>1.009109026429772</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.031346696736091</v>
+        <v>0.9897387989484716</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033442049496486</v>
+        <v>1.040147225396471</v>
       </c>
       <c r="J14">
-        <v>1.027775854549225</v>
+        <v>1.017521604605276</v>
       </c>
       <c r="K14">
-        <v>1.030749665255062</v>
+        <v>1.023877926641891</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.034934877112009</v>
+        <v>1.00487408283128</v>
       </c>
       <c r="N14">
-        <v>1.013333144608463</v>
+        <v>1.009898427552468</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021177759248215</v>
+        <v>0.9880118618587981</v>
       </c>
       <c r="D15">
-        <v>1.027203375591662</v>
+        <v>1.009408367360746</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.031455781894882</v>
+        <v>0.9902805403633473</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03346161796782</v>
+        <v>1.040289653855366</v>
       </c>
       <c r="J15">
-        <v>1.027816697655412</v>
+        <v>1.017737842622589</v>
       </c>
       <c r="K15">
-        <v>1.030787465502762</v>
+        <v>1.024084056094493</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.035023955716563</v>
+        <v>1.005315147423024</v>
       </c>
       <c r="N15">
-        <v>1.013346616020371</v>
+        <v>1.009969725730842</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02163724464893</v>
+        <v>0.990465500979093</v>
       </c>
       <c r="D16">
-        <v>1.027539363415455</v>
+        <v>1.011137245998773</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.032090974621496</v>
+        <v>0.9934068188468412</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033575072463234</v>
+        <v>1.041108000316675</v>
       </c>
       <c r="J16">
-        <v>1.028054300250181</v>
+        <v>1.018984564702142</v>
       </c>
       <c r="K16">
-        <v>1.031007303537601</v>
+        <v>1.025272188214032</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.035542477054318</v>
+        <v>1.007859113256597</v>
       </c>
       <c r="N16">
-        <v>1.013424983397823</v>
+        <v>1.010380813664824</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021925589198184</v>
+        <v>0.9919866880255049</v>
       </c>
       <c r="D17">
-        <v>1.027750201012609</v>
+        <v>1.012210125900642</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.032489651088956</v>
+        <v>0.9953447257604623</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033645849177535</v>
+        <v>1.041612083988627</v>
       </c>
       <c r="J17">
-        <v>1.028203233803158</v>
+        <v>1.019756327429274</v>
       </c>
       <c r="K17">
-        <v>1.031145046423057</v>
+        <v>1.026007401629405</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.035867770860453</v>
+        <v>1.009434874130072</v>
       </c>
       <c r="N17">
-        <v>1.013474103833236</v>
+        <v>1.010635305681761</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022093818940265</v>
+        <v>0.9928676604567827</v>
       </c>
       <c r="D18">
-        <v>1.027873207766119</v>
+        <v>1.012831821248137</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.03272227732436</v>
+        <v>0.9964669554886424</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033686991148477</v>
+        <v>1.041902828495372</v>
       </c>
       <c r="J18">
-        <v>1.028290064854703</v>
+        <v>1.020202853544562</v>
       </c>
       <c r="K18">
-        <v>1.03122533304064</v>
+        <v>1.026432676675228</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.03605752296641</v>
+        <v>1.010346953838061</v>
       </c>
       <c r="N18">
-        <v>1.013502741371771</v>
+        <v>1.010782554606162</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022151188218758</v>
+        <v>0.9931669924796043</v>
       </c>
       <c r="D19">
-        <v>1.02791515471438</v>
+        <v>1.013043115991933</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.032801611241876</v>
+        <v>0.9968482496139779</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03370099557809</v>
+        <v>1.042001413506162</v>
       </c>
       <c r="J19">
-        <v>1.028319665288499</v>
+        <v>1.020354498362454</v>
       </c>
       <c r="K19">
-        <v>1.03125269908858</v>
+        <v>1.026577086374404</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.036122225827258</v>
+        <v>1.010656772178119</v>
       </c>
       <c r="N19">
-        <v>1.013512503717519</v>
+        <v>1.010832562671833</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021894648071743</v>
+        <v>0.9918241349854212</v>
       </c>
       <c r="D20">
-        <v>1.027727577147589</v>
+        <v>1.012095441687065</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.032446868077242</v>
+        <v>0.9951376511851707</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033638270073497</v>
+        <v>1.041558340894621</v>
       </c>
       <c r="J20">
-        <v>1.028187258706826</v>
+        <v>1.019673901659917</v>
       </c>
       <c r="K20">
-        <v>1.031130273748569</v>
+        <v>1.025928890149482</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.035832868485347</v>
+        <v>1.009266541386473</v>
       </c>
       <c r="N20">
-        <v>1.013468835077375</v>
+        <v>1.010608124905799</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021061123308644</v>
+        <v>0.9873831799610846</v>
       </c>
       <c r="D21">
-        <v>1.027118086128375</v>
+        <v>1.008965719227166</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.031294565272342</v>
+        <v>0.9894793957663566</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033432689121812</v>
+        <v>1.040078963049482</v>
       </c>
       <c r="J21">
-        <v>1.027756331823409</v>
+        <v>1.017418043235234</v>
       </c>
       <c r="K21">
-        <v>1.03073159588571</v>
+        <v>1.023779201120626</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.034892303629608</v>
+        <v>1.004662863581155</v>
       </c>
       <c r="N21">
-        <v>1.013326705333196</v>
+        <v>1.009864281537242</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020537454380015</v>
+        <v>0.9845309241650922</v>
       </c>
       <c r="D22">
-        <v>1.026735145783327</v>
+        <v>1.006959208752647</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.030570840238699</v>
+        <v>0.9858439678101346</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033302167942113</v>
+        <v>1.039118136147754</v>
       </c>
       <c r="J22">
-        <v>1.027485043764079</v>
+        <v>1.015965412055146</v>
       </c>
       <c r="K22">
-        <v>1.03048043025685</v>
+        <v>1.022394051598447</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.034301064346837</v>
+        <v>1.001701173050842</v>
       </c>
       <c r="N22">
-        <v>1.013237222944088</v>
+        <v>1.00938534588001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020815022599233</v>
+        <v>0.986048812063222</v>
       </c>
       <c r="D23">
-        <v>1.026938123459251</v>
+        <v>1.008026660283865</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.030954426879778</v>
+        <v>0.9877787949110886</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033371479285755</v>
+        <v>1.03963045462031</v>
       </c>
       <c r="J23">
-        <v>1.027628891248667</v>
+        <v>1.016738808495743</v>
       </c>
       <c r="K23">
-        <v>1.030613625024833</v>
+        <v>1.023131599589593</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.034614478681251</v>
+        <v>1.003277780133167</v>
       </c>
       <c r="N23">
-        <v>1.01328467048081</v>
+        <v>1.009640331099795</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021908628901521</v>
+        <v>0.9918976051746351</v>
       </c>
       <c r="D24">
-        <v>1.027737799809746</v>
+        <v>1.012147275190187</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.032466199616112</v>
+        <v>0.9952312443120973</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033641695179779</v>
+        <v>1.04158263520657</v>
       </c>
       <c r="J24">
-        <v>1.028194477286996</v>
+        <v>1.019711157518665</v>
       </c>
       <c r="K24">
-        <v>1.031136949058929</v>
+        <v>1.025964377101918</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.03584863932395</v>
+        <v>1.009342625408091</v>
       </c>
       <c r="N24">
-        <v>1.013471215843364</v>
+        <v>1.010620410406703</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023179388447946</v>
+        <v>0.9984386743378584</v>
       </c>
       <c r="D25">
-        <v>1.028666901249198</v>
+        <v>1.016769091406739</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.034223857902699</v>
+        <v>1.003562967785777</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03394973624973</v>
+        <v>1.0437199042352</v>
       </c>
       <c r="J25">
-        <v>1.028849260044448</v>
+        <v>1.02301869780971</v>
       </c>
       <c r="K25">
-        <v>1.03174201787773</v>
+        <v>1.029112548917574</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.037281348805436</v>
+        <v>1.016106223920163</v>
       </c>
       <c r="N25">
-        <v>1.013687157262542</v>
+        <v>1.01171120462223</v>
       </c>
     </row>
   </sheetData>
